--- a/historico2.xlsx
+++ b/historico2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mrncombr-my.sharepoint.com/personal/marcos_silva_pj_mrn_com_br/Documents/Documentos/GitHub/oleo_combustivel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{E208FA58-8AD0-4040-B3D7-42A28A67AABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D026B2A-8271-43A0-B7B9-DAA9AA53CDB4}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{E208FA58-8AD0-4040-B3D7-42A28A67AABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9ED18D78-6336-49DB-A06F-2D1624AF516B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{215A0AE0-809D-4F45-8DE5-EE6BBFD5C322}"/>
   </bookViews>
@@ -776,7 +776,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="78">
   <si>
     <t>data</t>
   </si>
@@ -1007,6 +1007,9 @@
   </si>
   <si>
     <t>Média Todas Refinarias Modalidade EXA (exceto Manaus)</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -2340,8 +2343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF16CF6-290C-418A-A058-AA17DEFE9ACD}">
   <dimension ref="A1:BY1327"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7:N8"/>
+    <sheetView tabSelected="1" topLeftCell="BB1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2584,88 +2587,936 @@
       </c>
     </row>
     <row r="2" spans="1:77" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="1"/>
+      <c r="A2" s="2">
+        <v>44992</v>
+      </c>
+      <c r="B2" s="3">
+        <v>4.0411000000000001</v>
+      </c>
+      <c r="C2" s="3">
+        <v>4.0478000000000005</v>
+      </c>
+      <c r="D2" s="3">
+        <v>4.0500999999999996</v>
+      </c>
+      <c r="E2" s="3">
+        <v>4.0563000000000002</v>
+      </c>
+      <c r="F2" s="3">
+        <v>4.0579999999999998</v>
+      </c>
+      <c r="G2" s="3">
+        <v>3.9599000000000002</v>
+      </c>
+      <c r="H2" s="3">
+        <v>4.0030999999999999</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="3">
+        <v>4.1555</v>
+      </c>
+      <c r="K2" s="3">
+        <v>4.1577999999999999</v>
+      </c>
+      <c r="L2" s="3">
+        <v>4.1126000000000005</v>
+      </c>
+      <c r="M2" s="3">
+        <v>4.1242999999999999</v>
+      </c>
+      <c r="N2" s="3">
+        <v>4.1657999999999999</v>
+      </c>
+      <c r="O2" s="3">
+        <v>4.1675000000000004</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>4.0289000000000001</v>
+      </c>
+      <c r="R2" s="3">
+        <v>4.0312000000000001</v>
+      </c>
+      <c r="S2" s="1">
+        <v>4.0206999999999997</v>
+      </c>
+      <c r="T2">
+        <v>4.0229999999999997</v>
+      </c>
+      <c r="U2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="V2">
+        <v>4.1023000000000005</v>
+      </c>
+      <c r="W2" t="s">
+        <v>77</v>
+      </c>
+      <c r="X2">
+        <v>3.9199000000000002</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z2">
+        <v>4.0970000000000004</v>
+      </c>
+      <c r="AA2">
+        <v>4.1086</v>
+      </c>
+      <c r="AB2">
+        <v>4.0650000000000004</v>
+      </c>
+      <c r="AC2">
+        <v>4.0845000000000002</v>
+      </c>
+      <c r="AD2">
+        <v>3.9129</v>
+      </c>
+      <c r="AE2">
+        <v>3.9329000000000001</v>
+      </c>
+      <c r="AF2">
+        <v>3.9146000000000001</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI2">
+        <v>3.9746999999999999</v>
+      </c>
+      <c r="AJ2">
+        <v>3.9746999999999999</v>
+      </c>
+      <c r="AK2">
+        <v>3.9636999999999998</v>
+      </c>
+      <c r="AL2">
+        <v>4.1126000000000005</v>
+      </c>
+      <c r="AM2">
+        <v>4.1269999999999998</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP2">
+        <v>3.9328000000000003</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR2">
+        <v>3.9318</v>
+      </c>
+      <c r="AS2">
+        <v>4.0318000000000005</v>
+      </c>
+      <c r="AT2">
+        <v>4.0766</v>
+      </c>
+      <c r="AU2">
+        <v>4.0789</v>
+      </c>
+      <c r="AV2">
+        <v>4.1071999999999997</v>
+      </c>
+      <c r="AW2">
+        <v>4.1127000000000002</v>
+      </c>
+      <c r="AX2">
+        <v>4.0190999999999999</v>
+      </c>
+      <c r="AY2">
+        <v>4.2966000000000006</v>
+      </c>
+      <c r="AZ2">
+        <v>4.3366000000000007</v>
+      </c>
+      <c r="BA2">
+        <v>3.9653</v>
+      </c>
+      <c r="BB2">
+        <v>4.0457000000000001</v>
+      </c>
+      <c r="BC2">
+        <v>4.0488</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE2">
+        <v>4.0674000000000001</v>
+      </c>
+      <c r="BF2">
+        <v>4.0697000000000001</v>
+      </c>
+      <c r="BG2">
+        <v>3.8984999999999999</v>
+      </c>
+      <c r="BH2">
+        <v>3.9460000000000002</v>
+      </c>
+      <c r="BI2">
+        <v>3.9235000000000002</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK2">
+        <v>3.8984999999999999</v>
+      </c>
+      <c r="BL2">
+        <v>4.1571999999999996</v>
+      </c>
+      <c r="BM2">
+        <v>4.1698999999999993</v>
+      </c>
+      <c r="BN2">
+        <v>4.1654999999999998</v>
+      </c>
+      <c r="BO2">
+        <v>4.1413000000000002</v>
+      </c>
+      <c r="BP2">
+        <v>4.1532</v>
+      </c>
+      <c r="BQ2">
+        <v>4.1496000000000004</v>
+      </c>
+      <c r="BR2">
+        <v>4.1642999999999999</v>
+      </c>
+      <c r="BS2">
+        <v>3.9429000000000003</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BU2">
+        <v>4.0301</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BW2">
+        <v>4.0301</v>
+      </c>
+      <c r="BX2">
+        <v>4.0595203389830514</v>
+      </c>
+      <c r="BY2">
+        <v>4.0701772727272729</v>
+      </c>
     </row>
     <row r="3" spans="1:77" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
+      <c r="A3" s="2">
+        <v>44993</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3.9123000000000001</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4.0478000000000005</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4.0500999999999996</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4.0563000000000002</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4.0579999999999998</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3.9599000000000002</v>
+      </c>
+      <c r="H3" s="1">
+        <v>4.0030999999999999</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="1">
+        <v>4.1555</v>
+      </c>
+      <c r="K3" s="1">
+        <v>4.1577999999999999</v>
+      </c>
+      <c r="L3" s="1">
+        <v>4.1126000000000005</v>
+      </c>
+      <c r="M3" s="1">
+        <v>4.1242999999999999</v>
+      </c>
+      <c r="N3" s="1">
+        <v>4.1657999999999999</v>
+      </c>
+      <c r="O3" s="1">
+        <v>4.1675000000000004</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>4.0289000000000001</v>
+      </c>
+      <c r="R3" s="1">
+        <v>4.0312000000000001</v>
+      </c>
+      <c r="S3" s="1">
+        <v>4.0206999999999997</v>
+      </c>
+      <c r="T3">
+        <v>4.0229999999999997</v>
+      </c>
+      <c r="U3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="V3">
+        <v>4.1023000000000005</v>
+      </c>
+      <c r="W3" t="s">
+        <v>77</v>
+      </c>
+      <c r="X3">
+        <v>3.9199000000000002</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z3">
+        <v>4.0970000000000004</v>
+      </c>
+      <c r="AA3">
+        <v>4.1086</v>
+      </c>
+      <c r="AB3">
+        <v>4.0650000000000004</v>
+      </c>
+      <c r="AC3">
+        <v>4.0845000000000002</v>
+      </c>
+      <c r="AD3">
+        <v>3.9129</v>
+      </c>
+      <c r="AE3">
+        <v>3.9329000000000001</v>
+      </c>
+      <c r="AF3">
+        <v>3.9146000000000001</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI3">
+        <v>3.9746999999999999</v>
+      </c>
+      <c r="AJ3">
+        <v>3.9746999999999999</v>
+      </c>
+      <c r="AK3">
+        <v>3.9636999999999998</v>
+      </c>
+      <c r="AL3">
+        <v>4.1126000000000005</v>
+      </c>
+      <c r="AM3">
+        <v>4.1269999999999998</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP3">
+        <v>3.9328000000000003</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR3">
+        <v>3.9318</v>
+      </c>
+      <c r="AS3">
+        <v>4.0318000000000005</v>
+      </c>
+      <c r="AT3">
+        <v>4.0766</v>
+      </c>
+      <c r="AU3">
+        <v>4.0789</v>
+      </c>
+      <c r="AV3">
+        <v>4.1071999999999997</v>
+      </c>
+      <c r="AW3">
+        <v>4.1127000000000002</v>
+      </c>
+      <c r="AX3">
+        <v>4.0190999999999999</v>
+      </c>
+      <c r="AY3">
+        <v>4.2966000000000006</v>
+      </c>
+      <c r="AZ3">
+        <v>4.3366000000000007</v>
+      </c>
+      <c r="BA3">
+        <v>3.9653</v>
+      </c>
+      <c r="BB3">
+        <v>4.0457000000000001</v>
+      </c>
+      <c r="BC3">
+        <v>4.0488</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE3">
+        <v>4.0674000000000001</v>
+      </c>
+      <c r="BF3">
+        <v>4.0697000000000001</v>
+      </c>
+      <c r="BG3">
+        <v>3.8984999999999999</v>
+      </c>
+      <c r="BH3">
+        <v>3.9460000000000002</v>
+      </c>
+      <c r="BI3">
+        <v>3.9235000000000002</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK3">
+        <v>3.8984999999999999</v>
+      </c>
+      <c r="BL3">
+        <v>4.1571999999999996</v>
+      </c>
+      <c r="BM3">
+        <v>4.1698999999999993</v>
+      </c>
+      <c r="BN3">
+        <v>4.1654999999999998</v>
+      </c>
+      <c r="BO3">
+        <v>4.1413000000000002</v>
+      </c>
+      <c r="BP3">
+        <v>4.1532</v>
+      </c>
+      <c r="BQ3">
+        <v>4.1496000000000004</v>
+      </c>
+      <c r="BR3">
+        <v>4.1642999999999999</v>
+      </c>
+      <c r="BS3">
+        <v>3.9429000000000003</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>77</v>
+      </c>
+      <c r="BU3">
+        <v>4.0301</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>77</v>
+      </c>
+      <c r="BW3">
+        <v>4.0301</v>
+      </c>
+      <c r="BX3">
+        <v>4.0595203389830514</v>
+      </c>
+      <c r="BY3">
+        <v>4.0701772727272729</v>
+      </c>
     </row>
     <row r="4" spans="1:77" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
+      <c r="A4" s="2">
+        <v>44994</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3.8300999999999998</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4.0478000000000005</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4.0500999999999996</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4.0563000000000002</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4.0579999999999998</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3.9599000000000002</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4.0030999999999999</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="1">
+        <v>4.1555</v>
+      </c>
+      <c r="K4" s="1">
+        <v>4.1577999999999999</v>
+      </c>
+      <c r="L4" s="1">
+        <v>4.1126000000000005</v>
+      </c>
+      <c r="M4" s="1">
+        <v>4.1242999999999999</v>
+      </c>
+      <c r="N4" s="1">
+        <v>4.1657999999999999</v>
+      </c>
+      <c r="O4" s="1">
+        <v>4.1675000000000004</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>4.0289000000000001</v>
+      </c>
+      <c r="R4" s="1">
+        <v>4.0312000000000001</v>
+      </c>
+      <c r="S4" s="1">
+        <v>4.0206999999999997</v>
+      </c>
+      <c r="T4">
+        <v>4.0229999999999997</v>
+      </c>
+      <c r="U4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="V4">
+        <v>4.1023000000000005</v>
+      </c>
+      <c r="W4" t="s">
+        <v>77</v>
+      </c>
+      <c r="X4">
+        <v>3.9199000000000002</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z4">
+        <v>4.0970000000000004</v>
+      </c>
+      <c r="AA4">
+        <v>4.1086</v>
+      </c>
+      <c r="AB4">
+        <v>4.0650000000000004</v>
+      </c>
+      <c r="AC4">
+        <v>4.0845000000000002</v>
+      </c>
+      <c r="AD4">
+        <v>3.9129</v>
+      </c>
+      <c r="AE4">
+        <v>3.9329000000000001</v>
+      </c>
+      <c r="AF4">
+        <v>3.9146000000000001</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI4">
+        <v>3.9746999999999999</v>
+      </c>
+      <c r="AJ4">
+        <v>3.9746999999999999</v>
+      </c>
+      <c r="AK4">
+        <v>3.9636999999999998</v>
+      </c>
+      <c r="AL4">
+        <v>4.1126000000000005</v>
+      </c>
+      <c r="AM4">
+        <v>4.1269999999999998</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP4">
+        <v>4.1101000000000001</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR4">
+        <v>3.9318</v>
+      </c>
+      <c r="AS4">
+        <v>4.0318000000000005</v>
+      </c>
+      <c r="AT4">
+        <v>4.0766</v>
+      </c>
+      <c r="AU4">
+        <v>4.0789</v>
+      </c>
+      <c r="AV4">
+        <v>4.1071999999999997</v>
+      </c>
+      <c r="AW4">
+        <v>4.1127000000000002</v>
+      </c>
+      <c r="AX4">
+        <v>4.0190999999999999</v>
+      </c>
+      <c r="AY4">
+        <v>4.2966000000000006</v>
+      </c>
+      <c r="AZ4">
+        <v>4.3366000000000007</v>
+      </c>
+      <c r="BA4">
+        <v>3.9653</v>
+      </c>
+      <c r="BB4">
+        <v>4.0457000000000001</v>
+      </c>
+      <c r="BC4">
+        <v>4.0488</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE4">
+        <v>4.0674000000000001</v>
+      </c>
+      <c r="BF4">
+        <v>4.0697000000000001</v>
+      </c>
+      <c r="BG4">
+        <v>3.8984999999999999</v>
+      </c>
+      <c r="BH4">
+        <v>3.9460000000000002</v>
+      </c>
+      <c r="BI4">
+        <v>3.9235000000000002</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK4">
+        <v>3.8984999999999999</v>
+      </c>
+      <c r="BL4">
+        <v>4.1571999999999996</v>
+      </c>
+      <c r="BM4">
+        <v>4.1698999999999993</v>
+      </c>
+      <c r="BN4">
+        <v>4.1654999999999998</v>
+      </c>
+      <c r="BO4">
+        <v>4.1413000000000002</v>
+      </c>
+      <c r="BP4">
+        <v>4.1532</v>
+      </c>
+      <c r="BQ4">
+        <v>4.1496000000000004</v>
+      </c>
+      <c r="BR4">
+        <v>4.1642999999999999</v>
+      </c>
+      <c r="BS4">
+        <v>3.9429000000000003</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>77</v>
+      </c>
+      <c r="BU4">
+        <v>4.0301</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>77</v>
+      </c>
+      <c r="BW4">
+        <v>4.0301</v>
+      </c>
+      <c r="BX4">
+        <v>4.0595203389830514</v>
+      </c>
+      <c r="BY4">
+        <v>4.0701772727272729</v>
+      </c>
     </row>
     <row r="5" spans="1:77" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
+      <c r="A5" s="2">
+        <v>44995</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3.7284999999999999</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4.0478000000000005</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4.0500999999999996</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4.0563000000000002</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4.0579999999999998</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3.9599000000000002</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4.0030999999999999</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4.1555</v>
+      </c>
+      <c r="K5" s="1">
+        <v>4.1577999999999999</v>
+      </c>
+      <c r="L5" s="1">
+        <v>4.1126000000000005</v>
+      </c>
+      <c r="M5" s="1">
+        <v>4.1242999999999999</v>
+      </c>
+      <c r="N5" s="1">
+        <v>4.1657999999999999</v>
+      </c>
+      <c r="O5" s="1">
+        <v>4.1675000000000004</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>4.0289000000000001</v>
+      </c>
+      <c r="R5" s="1">
+        <v>4.0312000000000001</v>
+      </c>
+      <c r="S5" s="1">
+        <v>4.0206999999999997</v>
+      </c>
+      <c r="T5">
+        <v>4.0229999999999997</v>
+      </c>
+      <c r="U5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="V5">
+        <v>4.1023000000000005</v>
+      </c>
+      <c r="W5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5">
+        <v>3.9199000000000002</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z5">
+        <v>4.0970000000000004</v>
+      </c>
+      <c r="AA5">
+        <v>4.1086</v>
+      </c>
+      <c r="AB5">
+        <v>4.0650000000000004</v>
+      </c>
+      <c r="AC5">
+        <v>4.0845000000000002</v>
+      </c>
+      <c r="AD5">
+        <v>3.9129</v>
+      </c>
+      <c r="AE5">
+        <v>3.9329000000000001</v>
+      </c>
+      <c r="AF5">
+        <v>3.9146000000000001</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI5">
+        <v>3.9746999999999999</v>
+      </c>
+      <c r="AJ5">
+        <v>3.9746999999999999</v>
+      </c>
+      <c r="AK5">
+        <v>3.9636999999999998</v>
+      </c>
+      <c r="AL5">
+        <v>4.1126000000000005</v>
+      </c>
+      <c r="AM5">
+        <v>4.1269999999999998</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP5">
+        <v>4.1101000000000001</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR5">
+        <v>3.9318</v>
+      </c>
+      <c r="AS5">
+        <v>4.0318000000000005</v>
+      </c>
+      <c r="AT5">
+        <v>4.0766</v>
+      </c>
+      <c r="AU5">
+        <v>4.0789</v>
+      </c>
+      <c r="AV5">
+        <v>4.1071999999999997</v>
+      </c>
+      <c r="AW5">
+        <v>4.1127000000000002</v>
+      </c>
+      <c r="AX5">
+        <v>4.0190999999999999</v>
+      </c>
+      <c r="AY5">
+        <v>4.2966000000000006</v>
+      </c>
+      <c r="AZ5">
+        <v>4.3366000000000007</v>
+      </c>
+      <c r="BA5">
+        <v>3.9653</v>
+      </c>
+      <c r="BB5">
+        <v>4.0457000000000001</v>
+      </c>
+      <c r="BC5">
+        <v>4.0488</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE5">
+        <v>4.0674000000000001</v>
+      </c>
+      <c r="BF5">
+        <v>4.0697000000000001</v>
+      </c>
+      <c r="BG5">
+        <v>3.8984999999999999</v>
+      </c>
+      <c r="BH5">
+        <v>3.9460000000000002</v>
+      </c>
+      <c r="BI5">
+        <v>3.9235000000000002</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK5">
+        <v>3.8984999999999999</v>
+      </c>
+      <c r="BL5">
+        <v>4.1571999999999996</v>
+      </c>
+      <c r="BM5">
+        <v>4.1698999999999993</v>
+      </c>
+      <c r="BN5">
+        <v>4.1654999999999998</v>
+      </c>
+      <c r="BO5">
+        <v>4.1413000000000002</v>
+      </c>
+      <c r="BP5">
+        <v>4.1532</v>
+      </c>
+      <c r="BQ5">
+        <v>4.1496000000000004</v>
+      </c>
+      <c r="BR5">
+        <v>4.1642999999999999</v>
+      </c>
+      <c r="BS5">
+        <v>3.9429000000000003</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>77</v>
+      </c>
+      <c r="BU5">
+        <v>4.0301</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>77</v>
+      </c>
+      <c r="BW5">
+        <v>4.0301</v>
+      </c>
+      <c r="BX5">
+        <v>4.0595203389830514</v>
+      </c>
+      <c r="BY5">
+        <v>4.0701772727272729</v>
+      </c>
     </row>
     <row r="6" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>

--- a/historico2.xlsx
+++ b/historico2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mrncombr-my.sharepoint.com/personal/marcos_silva_pj_mrn_com_br/Documents/Documentos/GitHub/oleo_combustivel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{E208FA58-8AD0-4040-B3D7-42A28A67AABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9ED18D78-6336-49DB-A06F-2D1624AF516B}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{E208FA58-8AD0-4040-B3D7-42A28A67AABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{826E83CF-4CDB-4088-B705-FD9DEA837F0F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{215A0AE0-809D-4F45-8DE5-EE6BBFD5C322}"/>
   </bookViews>
@@ -776,7 +776,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="78">
   <si>
     <t>data</t>
   </si>
@@ -2343,8 +2343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF16CF6-290C-418A-A058-AA17DEFE9ACD}">
   <dimension ref="A1:BY1327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BB1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BW14" sqref="BW14:BX14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3519,46 +3519,470 @@
       </c>
     </row>
     <row r="6" spans="1:77" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
+      <c r="A6" s="2">
+        <v>44996</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3.7284999999999999</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4.0478000000000005</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4.0500999999999996</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4.0563000000000002</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4.0579999999999998</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3.9599000000000002</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4.0030999999999999</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="1">
+        <v>4.1555</v>
+      </c>
+      <c r="K6" s="1">
+        <v>4.1577999999999999</v>
+      </c>
+      <c r="L6" s="1">
+        <v>4.1126000000000005</v>
+      </c>
+      <c r="M6" s="1">
+        <v>4.1242999999999999</v>
+      </c>
+      <c r="N6" s="1">
+        <v>4.1657999999999999</v>
+      </c>
+      <c r="O6" s="1">
+        <v>4.1675000000000004</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>4.0289000000000001</v>
+      </c>
+      <c r="R6" s="1">
+        <v>4.0312000000000001</v>
+      </c>
+      <c r="S6" s="1">
+        <v>4.0206999999999997</v>
+      </c>
+      <c r="T6">
+        <v>4.0229999999999997</v>
+      </c>
+      <c r="U6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="V6">
+        <v>4.1023000000000005</v>
+      </c>
+      <c r="W6" t="s">
+        <v>77</v>
+      </c>
+      <c r="X6">
+        <v>3.9199000000000002</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z6">
+        <v>4.0970000000000004</v>
+      </c>
+      <c r="AA6">
+        <v>4.1086</v>
+      </c>
+      <c r="AB6">
+        <v>4.0650000000000004</v>
+      </c>
+      <c r="AC6">
+        <v>4.0845000000000002</v>
+      </c>
+      <c r="AD6">
+        <v>3.9129</v>
+      </c>
+      <c r="AE6">
+        <v>3.9329000000000001</v>
+      </c>
+      <c r="AF6">
+        <v>3.9146000000000001</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI6">
+        <v>3.9746999999999999</v>
+      </c>
+      <c r="AJ6">
+        <v>3.9746999999999999</v>
+      </c>
+      <c r="AK6">
+        <v>3.9636999999999998</v>
+      </c>
+      <c r="AL6">
+        <v>4.1126000000000005</v>
+      </c>
+      <c r="AM6">
+        <v>4.1269999999999998</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP6">
+        <v>4.1101000000000001</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR6">
+        <v>3.9318</v>
+      </c>
+      <c r="AS6">
+        <v>4.0318000000000005</v>
+      </c>
+      <c r="AT6">
+        <v>4.0766</v>
+      </c>
+      <c r="AU6">
+        <v>4.0789</v>
+      </c>
+      <c r="AV6">
+        <v>4.1071999999999997</v>
+      </c>
+      <c r="AW6">
+        <v>4.1127000000000002</v>
+      </c>
+      <c r="AX6">
+        <v>4.0190999999999999</v>
+      </c>
+      <c r="AY6">
+        <v>4.2966000000000006</v>
+      </c>
+      <c r="AZ6">
+        <v>4.3366000000000007</v>
+      </c>
+      <c r="BA6">
+        <v>3.9653</v>
+      </c>
+      <c r="BB6">
+        <v>4.0457000000000001</v>
+      </c>
+      <c r="BC6">
+        <v>4.0488</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE6">
+        <v>4.0674000000000001</v>
+      </c>
+      <c r="BF6">
+        <v>4.0697000000000001</v>
+      </c>
+      <c r="BG6">
+        <v>3.8984999999999999</v>
+      </c>
+      <c r="BH6">
+        <v>3.9460000000000002</v>
+      </c>
+      <c r="BI6">
+        <v>3.9235000000000002</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK6">
+        <v>3.8984999999999999</v>
+      </c>
+      <c r="BL6">
+        <v>4.1571999999999996</v>
+      </c>
+      <c r="BM6">
+        <v>4.1698999999999993</v>
+      </c>
+      <c r="BN6">
+        <v>4.1654999999999998</v>
+      </c>
+      <c r="BO6">
+        <v>4.1413000000000002</v>
+      </c>
+      <c r="BP6">
+        <v>4.1532</v>
+      </c>
+      <c r="BQ6">
+        <v>4.1496000000000004</v>
+      </c>
+      <c r="BR6">
+        <v>4.1642999999999999</v>
+      </c>
+      <c r="BS6">
+        <v>3.9429000000000003</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>77</v>
+      </c>
+      <c r="BU6">
+        <v>4.0301</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>77</v>
+      </c>
+      <c r="BW6">
+        <v>4.0301</v>
+      </c>
+      <c r="BX6">
+        <v>4.0595203389830514</v>
+      </c>
+      <c r="BY6">
+        <v>4.0701772727272729</v>
+      </c>
     </row>
     <row r="7" spans="1:77" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
+      <c r="A7" s="2">
+        <v>44997</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3.7284999999999999</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4.0478000000000005</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4.0500999999999996</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4.0563000000000002</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4.0579999999999998</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3.9599000000000002</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4.0030999999999999</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="1">
+        <v>4.1555</v>
+      </c>
+      <c r="K7" s="1">
+        <v>4.1577999999999999</v>
+      </c>
+      <c r="L7" s="1">
+        <v>4.1126000000000005</v>
+      </c>
+      <c r="M7" s="1">
+        <v>4.1242999999999999</v>
+      </c>
+      <c r="N7" s="1">
+        <v>4.1657999999999999</v>
+      </c>
+      <c r="O7" s="1">
+        <v>4.1675000000000004</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>4.0289000000000001</v>
+      </c>
+      <c r="R7" s="1">
+        <v>4.0312000000000001</v>
+      </c>
+      <c r="S7" s="1">
+        <v>4.0206999999999997</v>
+      </c>
+      <c r="T7">
+        <v>4.0229999999999997</v>
+      </c>
+      <c r="U7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="V7">
+        <v>4.1023000000000005</v>
+      </c>
+      <c r="W7" t="s">
+        <v>77</v>
+      </c>
+      <c r="X7">
+        <v>3.9199000000000002</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z7">
+        <v>4.0970000000000004</v>
+      </c>
+      <c r="AA7">
+        <v>4.1086</v>
+      </c>
+      <c r="AB7">
+        <v>4.0650000000000004</v>
+      </c>
+      <c r="AC7">
+        <v>4.0845000000000002</v>
+      </c>
+      <c r="AD7">
+        <v>3.9129</v>
+      </c>
+      <c r="AE7">
+        <v>3.9329000000000001</v>
+      </c>
+      <c r="AF7">
+        <v>3.9146000000000001</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI7">
+        <v>3.9746999999999999</v>
+      </c>
+      <c r="AJ7">
+        <v>3.9746999999999999</v>
+      </c>
+      <c r="AK7">
+        <v>3.9636999999999998</v>
+      </c>
+      <c r="AL7">
+        <v>4.1126000000000005</v>
+      </c>
+      <c r="AM7">
+        <v>4.1269999999999998</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP7">
+        <v>4.1101000000000001</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR7">
+        <v>3.9318</v>
+      </c>
+      <c r="AS7">
+        <v>4.0318000000000005</v>
+      </c>
+      <c r="AT7">
+        <v>4.0766</v>
+      </c>
+      <c r="AU7">
+        <v>4.0789</v>
+      </c>
+      <c r="AV7">
+        <v>4.1071999999999997</v>
+      </c>
+      <c r="AW7">
+        <v>4.1127000000000002</v>
+      </c>
+      <c r="AX7">
+        <v>4.0190999999999999</v>
+      </c>
+      <c r="AY7">
+        <v>4.2966000000000006</v>
+      </c>
+      <c r="AZ7">
+        <v>4.3366000000000007</v>
+      </c>
+      <c r="BA7">
+        <v>3.9653</v>
+      </c>
+      <c r="BB7">
+        <v>4.0457000000000001</v>
+      </c>
+      <c r="BC7">
+        <v>4.0488</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE7">
+        <v>4.0674000000000001</v>
+      </c>
+      <c r="BF7">
+        <v>4.0697000000000001</v>
+      </c>
+      <c r="BG7">
+        <v>3.8984999999999999</v>
+      </c>
+      <c r="BH7">
+        <v>3.9460000000000002</v>
+      </c>
+      <c r="BI7">
+        <v>3.9235000000000002</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK7">
+        <v>3.8984999999999999</v>
+      </c>
+      <c r="BL7">
+        <v>4.1571999999999996</v>
+      </c>
+      <c r="BM7">
+        <v>4.1698999999999993</v>
+      </c>
+      <c r="BN7">
+        <v>4.1654999999999998</v>
+      </c>
+      <c r="BO7">
+        <v>4.1413000000000002</v>
+      </c>
+      <c r="BP7">
+        <v>4.1532</v>
+      </c>
+      <c r="BQ7">
+        <v>4.1496000000000004</v>
+      </c>
+      <c r="BR7">
+        <v>4.1642999999999999</v>
+      </c>
+      <c r="BS7">
+        <v>3.9429000000000003</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>77</v>
+      </c>
+      <c r="BU7">
+        <v>4.0301</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>77</v>
+      </c>
+      <c r="BW7">
+        <v>4.0301</v>
+      </c>
+      <c r="BX7">
+        <v>4.0595203389830514</v>
+      </c>
+      <c r="BY7">
+        <v>4.0701772727272729</v>
+      </c>
     </row>
     <row r="8" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
